--- a/Result.xlsx
+++ b/Result.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Train</t>
   </si>
@@ -38,9 +38,6 @@
     <t>coco_2014_val</t>
   </si>
   <si>
-    <t>coco_2017_val</t>
-  </si>
-  <si>
     <t>AP</t>
   </si>
   <si>
@@ -66,12 +63,24 @@
   </si>
   <si>
     <t>Task</t>
+  </si>
+  <si>
+    <t>(baseline)
+coco_2014_train
+coco_2014_valminusminival</t>
+  </si>
+  <si>
+    <t>coco_2014_train</t>
+  </si>
+  <si>
+    <t>coco_2014_valminusminival
+coco_2017_train</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,15 +96,21 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -118,22 +133,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J9"/>
+  <dimension ref="B3:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -438,143 +522,282 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.5252</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.31909999999999999</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.33760000000000001</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.40479999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.27439999999999998</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.48409999999999997</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.2797</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.1086</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.41610000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" s="18" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="E6" s="17">
+        <v>0.40889999999999999</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.61929999999999996</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.44779999999999998</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.2349</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.44209999999999999</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0.53890000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="18" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.3639</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.58460000000000001</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.38679999999999998</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.30659999999999998</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.52480000000000004</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.31780000000000003</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.1668</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.3402</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.40670000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.30659999999999998</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.52480000000000004</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.31780000000000003</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.1668</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.3402</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.40670000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="E9" s="5">
         <v>0.27639999999999998</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F9" s="5">
         <v>0.48580000000000001</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G9" s="5">
         <v>0.2828</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H9" s="5">
         <v>0.1148</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I9" s="5">
         <v>0.30170000000000002</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J9" s="5">
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.3286</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.55920000000000003</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.1782</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.36130000000000001</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E11" s="5">
+        <v>0.29189999999999999</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.2989</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.1186</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.31319999999999998</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.43280000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B4:B7"/>
+  <mergeCells count="9">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mask RCNN R100" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Train</t>
   </si>
@@ -75,6 +75,16 @@
   <si>
     <t>coco_2014_valminusminival
 coco_2017_train</t>
+  </si>
+  <si>
+    <t>coco_2014_train
+coco_2014_valminusminival</t>
+  </si>
+  <si>
+    <t>iter 90k</t>
+  </si>
+  <si>
+    <t>iter 180k</t>
   </si>
 </sst>
 </file>
@@ -85,7 +95,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -163,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -176,6 +186,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -187,37 +234,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,22 +515,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J13"/>
+  <dimension ref="A3:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.8984375" style="1"/>
+    <col min="2" max="2" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -543,11 +559,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -572,9 +588,9 @@
         <v>0.40479999999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
@@ -597,65 +613,65 @@
         <v>0.41610000000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:10" s="18" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="1:10" s="8" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="7">
         <v>0.40889999999999999</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="7">
         <v>0.61929999999999996</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="7">
         <v>0.44779999999999998</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="7">
         <v>0.2349</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="7">
         <v>0.44209999999999999</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="7">
         <v>0.53890000000000005</v>
       </c>
     </row>
-    <row r="7" spans="2:10" s="18" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="16" t="s">
+    <row r="7" spans="1:10" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="7">
         <v>0.3639</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="7">
         <v>0.58460000000000001</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="7">
         <v>0.38679999999999998</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="7">
         <v>0.16639999999999999</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="7">
         <v>0.39150000000000001</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="7">
         <v>0.54</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -680,9 +696,9 @@
         <v>0.40670000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="21"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
@@ -705,9 +721,9 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -732,9 +748,9 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
@@ -757,38 +773,132 @@
         <v>0.43280000000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="13"/>
+      <c r="E12" s="10">
+        <v>0.30730000000000002</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.31830000000000003</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.1666</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.34229999999999999</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.40529999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="E13" s="10">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.48820000000000002</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.2833</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.30359999999999998</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="18"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="18"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -200,6 +200,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -216,12 +222,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -518,7 +518,7 @@
   <dimension ref="A3:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -614,10 +614,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="8" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -643,8 +643,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
@@ -774,10 +774,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -803,8 +803,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
@@ -831,43 +831,67 @@
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="E14" s="10">
+        <v>0.30680000000000002</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.52459999999999996</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.32040000000000002</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.1648</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.3402</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.40679999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="18"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="E15" s="1">
+        <v>0.27639999999999998</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.28089999999999998</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.3024</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.42020000000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -881,8 +905,8 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -895,11 +919,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B12:B13"/>
@@ -908,6 +927,11 @@
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -95,7 +95,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -173,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -199,6 +199,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -206,34 +221,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,16 +521,16 @@
   <dimension ref="A3:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.8984375" style="1"/>
-    <col min="2" max="2" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.8984375" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -560,10 +563,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -589,8 +592,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
@@ -614,10 +617,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="8" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -643,8 +646,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
@@ -668,10 +671,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -697,8 +700,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
@@ -722,8 +725,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -749,8 +752,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
@@ -774,10 +777,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -803,8 +806,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
@@ -831,10 +834,10 @@
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -860,27 +863,27 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="9" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>0.27639999999999998</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0.48399999999999999</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>0.28089999999999998</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>0.10970000000000001</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>0.3024</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>0.42020000000000002</v>
       </c>
     </row>
@@ -888,37 +891,66 @@
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="E16" s="10">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.17929999999999999</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.37019999999999997</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.4541</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="E17" s="2">
+        <v>0.2989</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.51580000000000004</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.30620000000000003</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.1212</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.3246</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.46129999999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B12:B13"/>
@@ -927,11 +959,6 @@
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>Train</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>iter 180k</t>
+  </si>
+  <si>
+    <t>iter 270k</t>
   </si>
 </sst>
 </file>
@@ -95,7 +98,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -173,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -202,6 +205,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -215,12 +233,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -231,12 +243,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,19 +524,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J17"/>
+  <dimension ref="A3:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.8984375" style="1"/>
+    <col min="2" max="2" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -563,10 +569,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -592,8 +598,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
@@ -617,10 +623,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="8" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -646,8 +652,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
@@ -671,10 +677,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -700,8 +706,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
@@ -725,8 +731,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -752,8 +758,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
@@ -777,10 +783,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -806,8 +812,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
@@ -834,10 +840,10 @@
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -863,8 +869,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
@@ -891,10 +897,10 @@
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -919,9 +925,9 @@
         <v>0.4541</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-      <c r="C17" s="23"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
@@ -944,13 +950,67 @@
         <v>0.46129999999999999</v>
       </c>
     </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.57120000000000004</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.37019999999999997</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.193</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.3836</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.46879999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.30959999999999999</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.52929999999999999</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.3196</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.3352</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.47870000000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C12:C13"/>
+  <mergeCells count="15">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B12:B13"/>
@@ -959,6 +1019,11 @@
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -2,12 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mask RCNN R100" sheetId="1" r:id="rId1"/>
+    <sheet name="training milestone" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Train</t>
   </si>
@@ -88,17 +89,77 @@
   </si>
   <si>
     <t>iter 270k</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>python tools/train_net.py \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    --cfg configs/wattanapong/train_e2e_mask_rcnn_R-101-FPN_4x_coco2014_train_valminusmini_2gpu.yaml \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    OUTPUT_DIR /tmp/detectron-output &gt; train_test_e2e_mask_rcnn_R-101-FPN_4x_coco2014_train_valminusmini_lr0_02.txt</t>
+  </si>
+  <si>
+    <t>tools</t>
+  </si>
+  <si>
+    <t>train_net.py</t>
+  </si>
+  <si>
+    <t>detectron</t>
+  </si>
+  <si>
+    <t>utils</t>
+  </si>
+  <si>
+    <t>train.py</t>
+  </si>
+  <si>
+    <t>train_model()</t>
+  </si>
+  <si>
+    <t>create_model()</t>
+  </si>
+  <si>
+    <t>detectron.utils.train.train_model()</t>
+  </si>
+  <si>
+    <t>checkpoint_iter</t>
+  </si>
+  <si>
+    <t>model_builder.create</t>
+  </si>
+  <si>
+    <t>modeling</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>directory &amp; function</t>
+  </si>
+  <si>
+    <t>model_builder.py</t>
+  </si>
+  <si>
+    <t>create()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -109,7 +170,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +180,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -242,6 +309,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,17 +609,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.8984375" style="1"/>
-    <col min="2" max="2" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.8984375" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1009,16 +1092,16 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B16:B17"/>
@@ -1028,4 +1111,181 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>98</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>119</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>134</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C6:M6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Result.xlsx
+++ b/Result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>Train</t>
   </si>
@@ -149,13 +149,52 @@
   </si>
   <si>
     <t>create()</t>
+  </si>
+  <si>
+    <t>DetectionModelHelper</t>
+  </si>
+  <si>
+    <t>DetectionModelHelper()</t>
+  </si>
+  <si>
+    <t>detector.py</t>
+  </si>
+  <si>
+    <t>Postulate : All Model builder</t>
+  </si>
+  <si>
+    <t>generalized_rcnn(model)</t>
+  </si>
+  <si>
+    <t>FPN.py</t>
+  </si>
+  <si>
+    <t>add_fpn_ResNet101_conv5_body()</t>
+  </si>
+  <si>
+    <t>add_fpn_onto_conv_body()</t>
+  </si>
+  <si>
+    <t>ResNet.add_ResNet101_conv5_body(model)</t>
+  </si>
+  <si>
+    <t>add_fpn(model,fpn_level_info_ResNet101_conv5() )</t>
+  </si>
+  <si>
+    <t>ResNet.py</t>
+  </si>
+  <si>
+    <t>add_ResNet101_conv5_body(model)</t>
+  </si>
+  <si>
+    <t>add_ResNet_convX_body(model, block_counts)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +208,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +233,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -275,57 +328,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,10 +709,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -681,8 +738,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
@@ -706,10 +763,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="8" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -735,8 +792,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
@@ -760,10 +817,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -789,8 +846,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
@@ -814,8 +871,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -841,8 +898,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
@@ -866,10 +923,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -895,8 +952,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
@@ -923,10 +980,10 @@
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -952,8 +1009,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
@@ -980,10 +1037,10 @@
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -1009,8 +1066,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
@@ -1037,10 +1094,10 @@
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -1066,8 +1123,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="12" t="s">
         <v>12</v>
       </c>
@@ -1092,11 +1149,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B6:B7"/>
@@ -1107,6 +1159,11 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1115,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1127,16 +1184,17 @@
     <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>22</v>
       </c>
@@ -1147,18 +1205,18 @@
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>24</v>
       </c>
@@ -1169,28 +1227,28 @@
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1203,18 +1261,18 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1230,19 +1288,19 @@
       <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>98</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>119</v>
       </c>
@@ -1250,7 +1308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>134</v>
       </c>
@@ -1258,32 +1316,160 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
         <v>3</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="31">
         <v>107</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="31" t="s">
         <v>40</v>
       </c>
+      <c r="J14" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>116</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>95</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="C6:M6"/>
+    <mergeCell ref="J14:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>Train</t>
   </si>
@@ -188,6 +188,24 @@
   </si>
   <si>
     <t>add_ResNet_convX_body(model, block_counts)</t>
+  </si>
+  <si>
+    <t>globals()[cfg.RESNETS.STEM_FUNC](model, 'data')</t>
+  </si>
+  <si>
+    <t>= basic_bn_stem(model,'data')</t>
+  </si>
+  <si>
+    <t>basic_bn_stem()</t>
+  </si>
+  <si>
+    <t>return model object from this function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inherit from cnn.CNNModelHelper </t>
+  </si>
+  <si>
+    <t>caffe2</t>
   </si>
 </sst>
 </file>
@@ -296,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -335,6 +353,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -347,30 +390,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,10 +399,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -709,10 +728,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -738,8 +757,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
@@ -763,10 +782,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="8" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -792,8 +811,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="25"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
@@ -817,10 +836,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -846,8 +865,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
@@ -871,8 +890,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="28" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -898,8 +917,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
@@ -923,10 +942,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -952,8 +971,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
@@ -980,10 +999,10 @@
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -1009,8 +1028,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
@@ -1037,10 +1056,10 @@
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -1066,8 +1085,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
@@ -1094,10 +1113,10 @@
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -1123,8 +1142,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="21"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="12" t="s">
         <v>12</v>
       </c>
@@ -1149,6 +1168,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="B6:B7"/>
@@ -1159,11 +1183,6 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1175,7 +1194,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1186,7 +1205,7 @@
     <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1195,15 +1214,15 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
@@ -1217,15 +1236,15 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1234,19 +1253,19 @@
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1261,11 +1280,11 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E8" s="14"/>
@@ -1316,23 +1335,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31">
+    <row r="14" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
         <v>3</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="16">
         <v>107</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="16" t="s">
         <v>40</v>
       </c>
       <c r="J14" s="32" t="s">
@@ -1354,7 +1373,7 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1373,8 +1392,17 @@
       <c r="F17" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1394,7 +1422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1414,7 +1442,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1425,7 +1453,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>104</v>
       </c>
@@ -1433,7 +1461,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>47</v>
       </c>
@@ -1450,7 +1478,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>91</v>
       </c>
@@ -1458,7 +1486,26 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>246</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
         <v>50</v>
       </c>
